--- a/output/1Y_P18_1VAL-D.xlsx
+++ b/output/1Y_P18_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>746.9598999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.161</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.161</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E3" s="1">
+        <v>746.9598999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G3" s="1">
-        <v>1498.0433</v>
-      </c>
       <c r="H3" s="1">
-        <v>19841.5837</v>
+        <v>9893.4835</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3507</v>
+        <v>9893.4835</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3876</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="L3" s="1">
-        <v>403.3583</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9596.6417</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>403.3583</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20244.942</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E4" s="1">
+        <v>1498.0433</v>
+      </c>
       <c r="F4" s="1">
-        <v>731.7602000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2229.8035</v>
+        <v>728.8205</v>
       </c>
       <c r="H4" s="1">
-        <v>30435.9265</v>
+        <v>20447.692</v>
       </c>
       <c r="I4" s="1">
-        <v>30040.3358</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4722</v>
+        <v>20447.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.3507</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>363.0225</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30798.949</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E5" s="1">
+        <v>2226.8638</v>
+      </c>
       <c r="F5" s="1">
-        <v>706.9614</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2936.7649</v>
+        <v>704.1212</v>
       </c>
       <c r="H5" s="1">
-        <v>41491.7892</v>
+        <v>31462.0223</v>
       </c>
       <c r="I5" s="1">
-        <v>40080.6717</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6479</v>
+        <v>31462.0223</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.4719</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>322.6867</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41814.4759</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E6" s="1">
+        <v>2930.985</v>
+      </c>
       <c r="F6" s="1">
-        <v>717.8026</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3654.5675</v>
+        <v>714.9189</v>
       </c>
       <c r="H6" s="1">
-        <v>50853.6724</v>
+        <v>40784.9495</v>
       </c>
       <c r="I6" s="1">
-        <v>50121.0075</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7146</v>
+        <v>40784.9495</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6473</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>282.3508</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51136.0232</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0131</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E7" s="1">
+        <v>3645.9039</v>
+      </c>
       <c r="F7" s="1">
-        <v>779.4203</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4433.9878</v>
+        <v>776.289</v>
       </c>
       <c r="H7" s="1">
-        <v>56821.5532</v>
+        <v>46722.259</v>
       </c>
       <c r="I7" s="1">
-        <v>60161.3433</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5682</v>
+        <v>46722.259</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.714</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>242.015</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57063.5682</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06660000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E8" s="1">
+        <v>4422.193</v>
+      </c>
       <c r="F8" s="1">
-        <v>781.2944</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5215.2821</v>
+        <v>778.1556</v>
       </c>
       <c r="H8" s="1">
-        <v>66673.2099</v>
+        <v>56534.1993</v>
       </c>
       <c r="I8" s="1">
-        <v>70201.6792</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.4608</v>
+        <v>56534.1993</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5679</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>201.6792</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>66874.8891</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0028</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E9" s="1">
+        <v>5200.3486</v>
+      </c>
       <c r="F9" s="1">
-        <v>724.3378</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5939.6199</v>
+        <v>721.4279</v>
       </c>
       <c r="H9" s="1">
-        <v>81904.389</v>
+        <v>71710.2068</v>
       </c>
       <c r="I9" s="1">
-        <v>80242.015</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.5096</v>
+        <v>71710.2068</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.4606</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>161.3433</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82065.7323</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0675</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E10" s="1">
+        <v>5921.7764</v>
+      </c>
       <c r="F10" s="1">
-        <v>700.9988</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6640.6187</v>
+        <v>698.1826</v>
       </c>
       <c r="H10" s="1">
-        <v>94619.52009999999</v>
+        <v>84377.02370000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90282.3508</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.5955</v>
+        <v>84377.02370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.5095</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>121.0075</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94740.5276</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0291</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E11" s="1">
+        <v>6619.9591</v>
+      </c>
       <c r="F11" s="1">
-        <v>705.372</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7345.9908</v>
+        <v>702.5383</v>
       </c>
       <c r="H11" s="1">
-        <v>104020.6983</v>
+        <v>93739.9443</v>
       </c>
       <c r="I11" s="1">
-        <v>100322.6867</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6568</v>
+        <v>93739.9443</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.5953</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>80.6717</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104101.3699</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E12" s="1">
+        <v>7322.4973</v>
+      </c>
       <c r="F12" s="1">
-        <v>730.4400000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8076.4307</v>
+        <v>727.5055</v>
       </c>
       <c r="H12" s="1">
-        <v>110439.5368</v>
+        <v>100130.0253</v>
       </c>
       <c r="I12" s="1">
-        <v>110363.0225</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6648</v>
+        <v>100130.0253</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6565</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10040.3358</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>40.3358</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110479.8727</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0317</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E13" s="1">
+        <v>8050.0029</v>
+      </c>
       <c r="F13" s="1">
-        <v>690.8884</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8767.319100000001</v>
+        <v>688.1129</v>
       </c>
       <c r="H13" s="1">
-        <v>126750.0096</v>
+        <v>116379.6964</v>
       </c>
       <c r="I13" s="1">
-        <v>120403.3583</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7332</v>
+        <v>116379.6964</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13.6646</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.75</v>
       </c>
-      <c r="L13" s="1">
-        <v>5451.5907</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-4588.7451</v>
+        <v>4942.6857</v>
       </c>
       <c r="O13" s="1">
-        <v>5451.5907</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132201.6004</v>
+        <v>-5057.3143</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0973</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E14" s="1">
+        <v>8738.1157</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8767.319100000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8050.0029</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122166.722</v>
       </c>
       <c r="I14" s="1">
-        <v>120403.3583</v>
+        <v>4942.6857</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7332</v>
+        <v>127109.4077</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5885</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>122575.0123</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128026.603</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128026.603</v>
+        <v>112546.285</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0997</v>
+        <v>0.0058</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.3876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>746.9598999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>746.9598999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.161</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.161</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.3141</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>746.9598999999999</v>
       </c>
       <c r="F3" s="1">
         <v>751.0834</v>
       </c>
       <c r="G3" s="1">
-        <v>1498.0433</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19841.5837</v>
+        <v>9893.4835</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3507</v>
+        <v>9893.4835</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3876</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="L3" s="1">
-        <v>403.3583</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9596.6417</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>403.3583</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20244.942</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.7208</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1498.0433</v>
       </c>
       <c r="F4" s="1">
         <v>699.8233</v>
       </c>
       <c r="G4" s="1">
-        <v>2197.8666</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20447.692</v>
       </c>
       <c r="I4" s="1">
-        <v>29602.1354</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4686</v>
+        <v>20447.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19602.1354</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.0852</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9602.135399999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>801.2229</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30801.2229</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.2021</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2197.8666</v>
       </c>
       <c r="F5" s="1">
         <v>633.3103</v>
       </c>
       <c r="G5" s="1">
-        <v>2831.1769</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31052.3385</v>
       </c>
       <c r="I5" s="1">
-        <v>38596.4719</v>
+        <v>397.8646</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6327</v>
+        <v>31450.2031</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28596.4719</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.011</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8994.3364</v>
       </c>
-      <c r="O5" s="1">
-        <v>1806.8865</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41806.8865</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0246</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>13.9876</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2831.1769</v>
       </c>
       <c r="F6" s="1">
         <v>762.042</v>
       </c>
       <c r="G6" s="1">
-        <v>3593.2189</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39396.11</v>
       </c>
       <c r="I6" s="1">
-        <v>49255.61</v>
+        <v>1403.5281</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7079</v>
+        <v>40799.6381</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39255.61</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8655</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10659.1381</v>
       </c>
-      <c r="O6" s="1">
-        <v>1147.7484</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51147.7484</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0127</v>
+        <v>-0.0157</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>12.8818</v>
       </c>
       <c r="E7" s="1">
+        <v>3593.2189</v>
+      </c>
+      <c r="F7" s="1">
+        <v>834.0752</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>865.3875</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4458.6064</v>
-      </c>
       <c r="H7" s="1">
-        <v>57137.0404</v>
+        <v>46047.0999</v>
       </c>
       <c r="I7" s="1">
-        <v>60403.3583</v>
+        <v>744.39</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5476</v>
+        <v>46791.49</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.9151</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11147.7484</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57137.0404</v>
+        <v>-10744.39</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06560000000000001</v>
+        <v>-0.0789</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>12.8509</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4427.2941</v>
       </c>
       <c r="F8" s="1">
         <v>778.1556</v>
       </c>
       <c r="G8" s="1">
-        <v>5236.762</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>66947.81230000001</v>
+        <v>56599.4131</v>
       </c>
       <c r="I8" s="1">
-        <v>70403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.4441</v>
+        <v>56599.4131</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5523</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66947.81230000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0028</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.8614</v>
       </c>
       <c r="E9" s="1">
+        <v>5205.4497</v>
+      </c>
+      <c r="F9" s="1">
+        <v>596.0659000000001</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>564.7537</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5801.5156</v>
-      </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71780.5487</v>
       </c>
       <c r="I9" s="1">
-        <v>78231.63499999999</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.4847</v>
+        <v>71780.5487</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68262.3085</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.1136</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-7828.2766</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2171.7234</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82171.7234</v>
+        <v>-8262.308499999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0679</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.3229</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5801.5156</v>
       </c>
       <c r="F10" s="1">
         <v>514.8944</v>
       </c>
       <c r="G10" s="1">
-        <v>6316.41</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82663.4758</v>
       </c>
       <c r="I10" s="1">
-        <v>85606.4158</v>
+        <v>1737.6915</v>
       </c>
       <c r="J10" s="1">
-        <v>13.553</v>
+        <v>84401.16740000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>75637.08930000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.0375</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7374.7808</v>
       </c>
-      <c r="O10" s="1">
-        <v>4796.9425</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94796.9425</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0285</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.2341</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6316.41</v>
       </c>
       <c r="F11" s="1">
         <v>745.6371</v>
       </c>
       <c r="G11" s="1">
-        <v>7062.0471</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>89441.62940000001</v>
       </c>
       <c r="I11" s="1">
-        <v>96219.889</v>
+        <v>4362.9107</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6249</v>
+        <v>93804.5401</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86250.5625</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.655</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10613.4732</v>
       </c>
-      <c r="O11" s="1">
-        <v>4183.4693</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104183.4693</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0059</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.7456</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7062.0471</v>
       </c>
       <c r="F12" s="1">
         <v>982.2403</v>
       </c>
       <c r="G12" s="1">
-        <v>8044.2875</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96568.55130000001</v>
       </c>
       <c r="I12" s="1">
-        <v>109721.3715</v>
+        <v>3749.4375</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6397</v>
+        <v>100317.9888</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99752.045</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.1251</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13501.4824</v>
       </c>
-      <c r="O12" s="1">
-        <v>681.9869</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110681.9869</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0307</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.5325</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8044.2875</v>
       </c>
       <c r="F13" s="1">
         <v>256.1324</v>
       </c>
       <c r="G13" s="1">
-        <v>8300.419900000001</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>116297.0682</v>
       </c>
       <c r="I13" s="1">
-        <v>113443.6156</v>
+        <v>247.955</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6672</v>
+        <v>116545.0233</v>
       </c>
       <c r="K13" s="1">
+        <v>103474.2891</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12.8631</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.75</v>
       </c>
-      <c r="L13" s="1">
-        <v>5429.894</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>1707.6499</v>
+        <v>4766.8818</v>
       </c>
       <c r="O13" s="1">
-        <v>12389.6367</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132389.6367</v>
+        <v>1044.6377</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.097</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8300.419900000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8300.419900000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116047.3401</v>
       </c>
       <c r="I14" s="1">
-        <v>113443.6156</v>
+        <v>11292.5927</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6672</v>
+        <v>127339.9328</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103474.2891</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.4662</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>116047.3401</v>
       </c>
-      <c r="O14" s="1">
-        <v>128436.9768</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128436.9768</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.098</v>
+        <v>0.0063</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.3876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>746.9598999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>746.9598999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.161</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.161</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.3141</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>746.9598999999999</v>
       </c>
       <c r="F3" s="1">
         <v>751.0834</v>
       </c>
       <c r="G3" s="1">
-        <v>1498.0433</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19841.5837</v>
+        <v>9893.4835</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3507</v>
+        <v>9893.4835</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3876</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="L3" s="1">
-        <v>403.3583</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9596.6417</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>403.3583</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20244.942</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.7208</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1498.0433</v>
       </c>
       <c r="F4" s="1">
         <v>710.8309</v>
       </c>
       <c r="G4" s="1">
-        <v>2208.8743</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20447.692</v>
       </c>
       <c r="I4" s="1">
-        <v>29753.1692</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4698</v>
+        <v>20447.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19753.1692</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.186</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9753.1692</v>
       </c>
-      <c r="O4" s="1">
-        <v>650.1891000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30800.4391</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0184</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.2021</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2208.8743</v>
       </c>
       <c r="F5" s="1">
         <v>643.6074</v>
       </c>
       <c r="G5" s="1">
-        <v>2852.4816</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31207.859</v>
       </c>
       <c r="I5" s="1">
-        <v>38893.7453</v>
+        <v>246.8308</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6351</v>
+        <v>31454.6898</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28893.7453</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.0808</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9140.5761</v>
       </c>
-      <c r="O5" s="1">
-        <v>1509.613</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41810.6143</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0248</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>13.9876</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2852.4816</v>
       </c>
       <c r="F6" s="1">
         <v>776.8496</v>
       </c>
       <c r="G6" s="1">
-        <v>3629.3312</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>39692.5669</v>
       </c>
       <c r="I6" s="1">
-        <v>49760.0062</v>
+        <v>1106.2547</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7105</v>
+        <v>40798.8216</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39760.0062</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9387</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10866.2609</v>
       </c>
-      <c r="O6" s="1">
-        <v>643.3521</v>
-      </c>
-      <c r="P6" s="1">
-        <v>51145.8584</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0128</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>12.8818</v>
       </c>
       <c r="E7" s="1">
+        <v>3629.3312</v>
+      </c>
+      <c r="F7" s="1">
+        <v>794.9195</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>826.2317</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4455.5629</v>
-      </c>
       <c r="H7" s="1">
-        <v>57098.0388</v>
+        <v>46509.879</v>
       </c>
       <c r="I7" s="1">
-        <v>60403.3583</v>
+        <v>239.9938</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5568</v>
+        <v>46749.8728</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7766</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10643.3521</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57098.0388</v>
+        <v>-10239.9938</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06619999999999999</v>
+        <v>-0.07969999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>12.8509</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4424.2507</v>
       </c>
       <c r="F8" s="1">
         <v>778.1556</v>
       </c>
       <c r="G8" s="1">
-        <v>5233.7185</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>66908.9045</v>
+        <v>56560.5053</v>
       </c>
       <c r="I8" s="1">
-        <v>70403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.4519</v>
+        <v>56560.5053</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5616</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66908.9045</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0028</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.8614</v>
       </c>
       <c r="E9" s="1">
+        <v>5202.4063</v>
+      </c>
+      <c r="F9" s="1">
+        <v>701.6575</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>670.3453</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5904.0638</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71738.58130000001</v>
       </c>
       <c r="I9" s="1">
-        <v>79695.2822</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.4984</v>
+        <v>71738.58130000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69725.95570000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.4026</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-9291.9239</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>708.0761</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82122.164</v>
+        <v>-9725.9557</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0678</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.3229</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5904.0638</v>
       </c>
       <c r="F10" s="1">
         <v>540.1594</v>
       </c>
       <c r="G10" s="1">
-        <v>6444.2232</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84124.64350000001</v>
       </c>
       <c r="I10" s="1">
-        <v>87431.9308</v>
+        <v>274.0443</v>
       </c>
       <c r="J10" s="1">
-        <v>13.5675</v>
+        <v>84398.6878</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77462.60430000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.1202</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7736.6486</v>
       </c>
-      <c r="O10" s="1">
-        <v>2971.4275</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94792.5858</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.029</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.2341</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6444.2232</v>
       </c>
       <c r="F11" s="1">
         <v>778.8573</v>
       </c>
       <c r="G11" s="1">
-        <v>7223.0805</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>91251.489</v>
       </c>
       <c r="I11" s="1">
-        <v>98518.2635</v>
+        <v>2537.3957</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6394</v>
+        <v>93788.8847</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88548.93700000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7408</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11086.3327</v>
       </c>
-      <c r="O11" s="1">
-        <v>1885.0948</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104165.3589</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.006</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.7456</v>
       </c>
       <c r="E12" s="1">
+        <v>7223.0805</v>
+      </c>
+      <c r="F12" s="1">
+        <v>833.0712</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>864.6472</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8087.7277</v>
-      </c>
       <c r="H12" s="1">
-        <v>110594.0148</v>
+        <v>98770.5693</v>
       </c>
       <c r="I12" s="1">
-        <v>110403.3583</v>
+        <v>1451.063</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6507</v>
+        <v>100221.6323</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.8445</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11885.0948</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>110594.0148</v>
+        <v>-11451.063</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0313</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.5325</v>
       </c>
       <c r="E13" s="1">
+        <v>8056.1516</v>
+      </c>
+      <c r="F13" s="1">
+        <v>476.3773</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>444.8012</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8532.528899999999</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116468.5898</v>
       </c>
       <c r="I13" s="1">
-        <v>116867.4321</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6967</v>
+        <v>116468.5898</v>
       </c>
       <c r="K13" s="1">
+        <v>106922.9528</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13.2722</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.75</v>
       </c>
-      <c r="L13" s="1">
-        <v>5459.2162</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-1004.8575</v>
+        <v>4875.5793</v>
       </c>
       <c r="O13" s="1">
-        <v>8995.1425</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132350.7662</v>
+        <v>-2047.3734</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0975</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8532.528899999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8532.528899999999</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119292.4335</v>
       </c>
       <c r="I14" s="1">
-        <v>116867.4321</v>
+        <v>7952.6266</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6967</v>
+        <v>127245.06</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106922.9528</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5312</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119292.4335</v>
       </c>
-      <c r="O14" s="1">
-        <v>128287.5759</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128287.5759</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0988</v>
+        <v>0.0061</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.3876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>746.9598999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>746.9598999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.161</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.161</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.3141</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>746.9598999999999</v>
       </c>
       <c r="F3" s="1">
         <v>751.0834</v>
       </c>
       <c r="G3" s="1">
-        <v>1498.0433</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19841.5837</v>
+        <v>9893.4835</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3507</v>
+        <v>9893.4835</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3876</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="L3" s="1">
-        <v>403.3583</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9596.6417</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>403.3583</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20244.942</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.7208</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1498.0433</v>
       </c>
       <c r="F4" s="1">
         <v>721.8751999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>2219.9185</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20447.692</v>
       </c>
       <c r="I4" s="1">
-        <v>29904.7055</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4711</v>
+        <v>20447.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19904.7055</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.2871</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9904.7055</v>
       </c>
-      <c r="O4" s="1">
-        <v>498.6528</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30799.6528</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.2021</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2219.9185</v>
       </c>
       <c r="F5" s="1">
         <v>654.0099</v>
       </c>
       <c r="G5" s="1">
-        <v>2873.9284</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31363.897</v>
       </c>
       <c r="I5" s="1">
-        <v>39193.0191</v>
+        <v>95.2945</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6374</v>
+        <v>31459.1915</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29193.0191</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.1505</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9288.3135</v>
       </c>
-      <c r="O5" s="1">
-        <v>1210.3393</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41814.3493</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0249</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>13.9876</v>
       </c>
       <c r="E6" s="1">
+        <v>2873.9284</v>
+      </c>
+      <c r="F6" s="1">
+        <v>772.6115</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>791.8771</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3665.8055</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>39991.0011</v>
       </c>
       <c r="I6" s="1">
-        <v>50269.4792</v>
+        <v>806.9809</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7131</v>
+        <v>40797.982</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9182</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11076.4601</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>133.8791</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51143.9292</v>
+        <v>-10806.9809</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0129</v>
+        <v>-0.0159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>12.8818</v>
       </c>
       <c r="E7" s="1">
+        <v>3646.5399</v>
+      </c>
+      <c r="F7" s="1">
+        <v>776.289</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>786.6819</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4452.4874</v>
-      </c>
       <c r="H7" s="1">
-        <v>57058.6263</v>
+        <v>46730.4091</v>
       </c>
       <c r="I7" s="1">
-        <v>60403.3583</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5662</v>
+        <v>46730.4091</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7116</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10133.8791</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>57058.6263</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0668</v>
+        <v>-0.0801</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>12.8509</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4422.8289</v>
       </c>
       <c r="F8" s="1">
         <v>778.1556</v>
       </c>
       <c r="G8" s="1">
-        <v>5230.643</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>66869.5867</v>
+        <v>56542.3299</v>
       </c>
       <c r="I8" s="1">
-        <v>70403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.4598</v>
+        <v>56542.3299</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.566</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66869.5867</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0028</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.8614</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5200.9846</v>
       </c>
       <c r="F9" s="1">
         <v>721.4279</v>
       </c>
       <c r="G9" s="1">
-        <v>5952.0709</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82076.0815</v>
+        <v>71718.9767</v>
       </c>
       <c r="I9" s="1">
-        <v>80403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.5085</v>
+        <v>71718.9767</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.459</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82076.0815</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0677</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.3229</v>
       </c>
       <c r="E10" s="1">
+        <v>5922.4124</v>
+      </c>
+      <c r="F10" s="1">
+        <v>652.6387</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>622.9802</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6575.0511</v>
-      </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>84386.0855</v>
       </c>
       <c r="I10" s="1">
-        <v>89326.24129999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.5856</v>
+        <v>84386.0855</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79347.67819999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.3979</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-8922.882900000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1077.1171</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94762.3898</v>
+        <v>-9347.6782</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0292</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.2341</v>
       </c>
       <c r="E11" s="1">
+        <v>6575.0511</v>
+      </c>
+      <c r="F11" s="1">
+        <v>748.3664</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>778.2098999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7353.2609</v>
-      </c>
       <c r="H11" s="1">
-        <v>104123.6455</v>
+        <v>93104.0382</v>
       </c>
       <c r="I11" s="1">
-        <v>100403.3583</v>
+        <v>652.3218000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6543</v>
+        <v>93756.36</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6881</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11077.1171</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104123.6455</v>
+        <v>-10652.3218</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.7456</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7323.4174</v>
       </c>
       <c r="F12" s="1">
         <v>727.5055</v>
       </c>
       <c r="G12" s="1">
-        <v>8080.7665</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>110498.8249</v>
+        <v>100142.6072</v>
       </c>
       <c r="I12" s="1">
-        <v>110403.3583</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6625</v>
+        <v>100142.6072</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6548</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110498.8249</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0318</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.5325</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8050.923</v>
       </c>
       <c r="F13" s="1">
         <v>688.1129</v>
       </c>
       <c r="G13" s="1">
-        <v>8768.879300000001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126772.5652</v>
+        <v>116392.9985</v>
       </c>
       <c r="I13" s="1">
-        <v>120403.3583</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7308</v>
+        <v>116392.9985</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13.663</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.75</v>
       </c>
-      <c r="L13" s="1">
-        <v>5454.5174</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-4545.4826</v>
+        <v>4943.3068</v>
       </c>
       <c r="O13" s="1">
-        <v>5454.5174</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132227.0826</v>
+        <v>-5056.6932</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0973</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>14.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8739.0358</v>
       </c>
       <c r="F14" s="1">
-        <v>-8768.879300000001</v>
+        <v>-8739.0358</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122179.586</v>
       </c>
       <c r="I14" s="1">
-        <v>120403.3583</v>
+        <v>4943.3068</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7308</v>
+        <v>127122.8927</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5872</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>122596.8249</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128051.3422</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128051.3422</v>
+        <v>122179.586</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0997</v>
+        <v>0.0058</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.3876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>746.9598999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>746.9598999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.161</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.161</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.3141</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>746.9598999999999</v>
       </c>
       <c r="F3" s="1">
         <v>751.0834</v>
       </c>
       <c r="G3" s="1">
-        <v>1498.0433</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19841.5837</v>
+        <v>9893.4835</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.3507</v>
+        <v>9893.4835</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13.3876</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="L3" s="1">
-        <v>403.3583</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9596.6417</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>403.3583</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>20244.942</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.7208</v>
       </c>
       <c r="E4" s="1">
+        <v>1498.0433</v>
+      </c>
+      <c r="F4" s="1">
+        <v>728.8205</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>732.9561</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2230.9994</v>
-      </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20447.692</v>
       </c>
       <c r="I4" s="1">
-        <v>30056.7445</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.4723</v>
+        <v>20447.692</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.3507</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10056.7445</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>346.6138</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30798.8638</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0183</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.2021</v>
       </c>
       <c r="E5" s="1">
+        <v>2226.8638</v>
+      </c>
+      <c r="F5" s="1">
+        <v>668.654</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>664.5184</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2895.5178</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31462.0223</v>
       </c>
       <c r="I5" s="1">
-        <v>39494.3007</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6398</v>
+        <v>31462.0223</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29496.2912</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.2457</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9437.556200000001</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>909.0576</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41818.0914</v>
+        <v>-9496.2912</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.025</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>13.9876</v>
       </c>
       <c r="E6" s="1">
+        <v>2895.5178</v>
+      </c>
+      <c r="F6" s="1">
+        <v>750.9299999999999</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>779.9092000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3675.427</v>
-      </c>
       <c r="H6" s="1">
-        <v>51143.934</v>
+        <v>40291.4198</v>
       </c>
       <c r="I6" s="1">
-        <v>50403.3583</v>
+        <v>503.7088</v>
       </c>
       <c r="J6" s="1">
-        <v>13.7136</v>
+        <v>40795.1286</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8145</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10909.0576</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>51143.934</v>
+        <v>-10503.7088</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.013</v>
+        <v>-0.0161</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>12.8818</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3646.4478</v>
       </c>
       <c r="F7" s="1">
         <v>776.289</v>
       </c>
       <c r="G7" s="1">
-        <v>4451.716</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>57048.7407</v>
+        <v>46729.2289</v>
       </c>
       <c r="I7" s="1">
-        <v>60403.3583</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5686</v>
+        <v>46729.2289</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.712</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>57048.7407</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.067</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>12.8509</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4422.7369</v>
       </c>
       <c r="F8" s="1">
         <v>778.1556</v>
       </c>
       <c r="G8" s="1">
-        <v>5229.8716</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>66859.7248</v>
+        <v>56541.1525</v>
       </c>
       <c r="I8" s="1">
-        <v>70403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.4618</v>
+        <v>56541.1525</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5663</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>66859.7248</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0028</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.8614</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5200.8925</v>
       </c>
       <c r="F9" s="1">
         <v>721.4279</v>
       </c>
       <c r="G9" s="1">
-        <v>5951.2995</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82065.44409999999</v>
+        <v>71717.7067</v>
       </c>
       <c r="I9" s="1">
-        <v>80403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.5102</v>
+        <v>71717.7067</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.4592</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82065.44409999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0677</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.3229</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5922.3203</v>
       </c>
       <c r="F10" s="1">
         <v>698.1826</v>
       </c>
       <c r="G10" s="1">
-        <v>6649.4821</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>94745.8107</v>
+        <v>84384.7733</v>
       </c>
       <c r="I10" s="1">
-        <v>90403.35830000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.5955</v>
+        <v>84384.7733</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.5082</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94745.8107</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0291</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.2341</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6620.503</v>
       </c>
       <c r="F11" s="1">
         <v>702.5383</v>
       </c>
       <c r="G11" s="1">
-        <v>7352.0204</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104106.0789</v>
+        <v>93747.6459</v>
       </c>
       <c r="I11" s="1">
-        <v>100403.3583</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6566</v>
+        <v>93747.6459</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.5941</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104106.0789</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.7456</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7323.0412</v>
       </c>
       <c r="F12" s="1">
         <v>727.5055</v>
       </c>
       <c r="G12" s="1">
-        <v>8079.5259</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>110481.8611</v>
+        <v>100137.4626</v>
       </c>
       <c r="I12" s="1">
-        <v>110403.3583</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6646</v>
+        <v>100137.4626</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6555</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110481.8611</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0318</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.5325</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8050.5468</v>
       </c>
       <c r="F13" s="1">
         <v>688.1129</v>
       </c>
       <c r="G13" s="1">
-        <v>8767.638800000001</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126754.6303</v>
+        <v>116387.5594</v>
       </c>
       <c r="I13" s="1">
-        <v>120403.3583</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7327</v>
+        <v>116387.5594</v>
       </c>
       <c r="K13" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13.6637</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.75</v>
       </c>
-      <c r="L13" s="1">
-        <v>5453.68</v>
-      </c>
-      <c r="M13" s="1">
-        <v>10000</v>
-      </c>
       <c r="N13" s="1">
-        <v>-4546.32</v>
+        <v>4943.0528</v>
       </c>
       <c r="O13" s="1">
-        <v>5453.68</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>132208.3103</v>
+        <v>-5056.9472</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0973</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8738.659600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8767.638800000001</v>
+        <v>-8738.659600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122174.326</v>
       </c>
       <c r="I14" s="1">
-        <v>120403.3583</v>
+        <v>4943.0528</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7327</v>
+        <v>127117.3789</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5877</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>122579.4807</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128033.1607</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128033.1607</v>
+        <v>122174.326</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0997</v>
+        <v>0.0058</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.0159</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.7332</v>
+        <v>12.5885</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6672</v>
+        <v>12.4662</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6967</v>
+        <v>12.5312</v>
       </c>
       <c r="F3" s="1">
-        <v>13.7308</v>
+        <v>12.5872</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7327</v>
+        <v>12.5877</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0593</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0319</v>
+        <v>0.0823</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0357</v>
+        <v>0.0848</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0344</v>
+        <v>0.0837</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0322</v>
+        <v>0.0825</v>
       </c>
       <c r="G4" s="3">
-        <v>0.032</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1458</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1776</v>
+        <v>0.1405</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1759</v>
+        <v>0.139</v>
       </c>
       <c r="E5" s="3">
-        <v>0.177</v>
+        <v>0.14</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1778</v>
+        <v>0.1405</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1779</v>
+        <v>0.1405</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.2673</v>
       </c>
       <c r="C6" s="4">
-        <v>0.06519999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0872</v>
+        <v>0.4639</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0793</v>
+        <v>0.453</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0669</v>
+        <v>0.443</v>
       </c>
       <c r="G6" s="4">
-        <v>0.06560000000000001</v>
+        <v>0.4425</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.127</v>
+        <v>-0.0386</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1373</v>
+        <v>0.1185</v>
       </c>
       <c r="E7" s="3">
-        <v>0.133</v>
+        <v>0.1154</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1276</v>
+        <v>0.1123</v>
       </c>
       <c r="G7" s="3">
-        <v>0.127</v>
+        <v>0.1121</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5854.9491</v>
+        <v>4942.6857</v>
       </c>
       <c r="D8" s="1">
-        <v>5833.2524</v>
+        <v>4766.8818</v>
       </c>
       <c r="E8" s="1">
-        <v>5862.5745</v>
+        <v>4875.5793</v>
       </c>
       <c r="F8" s="1">
-        <v>5857.8757</v>
+        <v>4943.3068</v>
       </c>
       <c r="G8" s="1">
-        <v>5857.0383</v>
+        <v>4943.0528</v>
       </c>
     </row>
   </sheetData>
